--- a/biology/Histoire de la zoologie et de la botanique/United_States_National_Herbarium/United_States_National_Herbarium.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/United_States_National_Herbarium/United_States_National_Herbarium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le United States National Herbarium (ou Herbier national des États-Unis) est une collection de cinq millions de spécimens végétaux conservés dans le département de botanique du National Museum of Natural History de Washington.
-Il fait partie de la Smithsonian Institution. Il représente environ 8 % des collections de plantes en herbier aux États-Unis et est l'un des dix plus grands herbiers dans le monde[1].
+Il fait partie de la Smithsonian Institution. Il représente environ 8 % des collections de plantes en herbier aux États-Unis et est l'un des dix plus grands herbiers dans le monde.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'herbier a été fondé en 1848, lorsque les collections obtenues durant l'expédition Wilkes dans le Sud Pacifique (1838-1842) qui ont permis de rassembler environ 50 000 spécimens, représentant 10 000 espèces de plantes[2], ont été transmises à la Smithsonian Institution. La collection a été confiée à John Torrey et Asa Gray et hébergée par l'université Columbia à New York. En 1868, Torrey souhaite restituer la collection à Washington, et la Smithsonian la confie au Département de l'Agriculture. C'est d'abord le botaniste Charles C. Parry qui en est responsable, puis à partir de 1872, George Vasey. En 1894, les  éléments de la collection reviennent au National Museum of Natural History, à l'exception des herbes, mais le Département de l'Agriculture continue à en financer le fonctionnement, jusqu'en 1896 où le Congrès américain le subventionne à son tour, en ajoutant une dotation de 10 000 dollars au fonctionnement de la Smithsonian Institution[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'herbier a été fondé en 1848, lorsque les collections obtenues durant l'expédition Wilkes dans le Sud Pacifique (1838-1842) qui ont permis de rassembler environ 50 000 spécimens, représentant 10 000 espèces de plantes, ont été transmises à la Smithsonian Institution. La collection a été confiée à John Torrey et Asa Gray et hébergée par l'université Columbia à New York. En 1868, Torrey souhaite restituer la collection à Washington, et la Smithsonian la confie au Département de l'Agriculture. C'est d'abord le botaniste Charles C. Parry qui en est responsable, puis à partir de 1872, George Vasey. En 1894, les  éléments de la collection reviennent au National Museum of Natural History, à l'exception des herbes, mais le Département de l'Agriculture continue à en financer le fonctionnement, jusqu'en 1896 où le Congrès américain le subventionne à son tour, en ajoutant une dotation de 10 000 dollars au fonctionnement de la Smithsonian Institution.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>La revue</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une revue intitulée Contributions from the U.S. National Herbarium (Contr. U.S. Natl. Herb.,  (ISSN 0097-1618)) est éditée de 1902 à 1974. 
 </t>
